--- a/biology/Botanique/Orchis_bouc/Orchis_bouc.xlsx
+++ b/biology/Botanique/Orchis_bouc/Orchis_bouc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantoglossum hircinum
-L’Orchis bouc ou Himantoglosse à odeur de bouc[1] (Himantoglossum hircinum) est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre européenne. On l'appelle parfois Loroglosse à odeur de bouc[2] (Loroglossum hircinum).
+L’Orchis bouc ou Himantoglosse à odeur de bouc (Himantoglossum hircinum) est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre européenne. On l'appelle parfois Loroglosse à odeur de bouc (Loroglossum hircinum).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantoglossum et Loroglossum signifient langue en lanière, en référence au labelle de la fleur ; hircinum fait référence à l'odeur de bouc forte et désagréable des fleurs.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante robuste pouvant atteindre 1 m. Elle possède de nombreuses feuilles d'un vert grisâtre qui apparaissent en automne, persistent l'hiver puis se flétrissent à la floraison. L'inflorescence est cylindrique et assez dense, fleurs verdâtres bordées de pourpre, sépales et pétales rassemblés en casque, labelle très allongé, jusqu'à 6 cm, enroulé, plus ou moins déployé à l'horizontale à la floraison, peu échancré à l'extrémité.
 Odeur marquée caractéristique, proche de celle du bouc (perceptible uniquement à proximité immédiate de la fleur).
@@ -575,7 +591,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mai à juillet.
 </t>
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses, friches, prairies maigres, talus, forêts clairiérées, toujours sur substrat calcaire.
 </t>
@@ -637,11 +657,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Méditerranéo-atlantique, assez localisé et rare (mais parfois abondant dans ses stations).
-Afrique du nord, Europe : Angleterre, Portugal, Espagne, France, Belgique, Allemagne, Suisse, Bulgarie, Italie du sud [3].
-En France, on trouve l'espèce dans le Centre, Massif central, Puy-de-Dôme, Alpes-de-Haute-Provence, Ardèche, Isère, Drôme, Rhône, Loire, Charente et Charente-Maritime, Dordogne, Lot-et-Garonne, Landes,Lot, Haute-Garonne, Ariège, Gers, Gironde, Aveyron, Tarn, Tarn &amp; Garonne (Saint Nicolas de la Grave) Haute-Saône (à Vesoul), Bourgogne, Jura, Alsace, Lorraine, Loir-et-Cher, cher, Indre,Indre-et-Loire, Maine-et-Loire, Sarthe, Eure-et-Loir (mai 2018), Loiret, île de Noirmoutier, (Vendée), Calvados, Champagne, Aube, Val-d'Oise, Haute-Marne[4], région parisienne, Nord, Pas-de-Calais, Somme, Meurthe-et-Moselle et la Vienne, Sud Seine-et-Marne (mai 2022).
+Afrique du nord, Europe : Angleterre, Portugal, Espagne, France, Belgique, Allemagne, Suisse, Bulgarie, Italie du sud .
+En France, on trouve l'espèce dans le Centre, Massif central, Puy-de-Dôme, Alpes-de-Haute-Provence, Ardèche, Isère, Drôme, Rhône, Loire, Charente et Charente-Maritime, Dordogne, Lot-et-Garonne, Landes,Lot, Haute-Garonne, Ariège, Gers, Gironde, Aveyron, Tarn, Tarn &amp; Garonne (Saint Nicolas de la Grave) Haute-Saône (à Vesoul), Bourgogne, Jura, Alsace, Lorraine, Loir-et-Cher, cher, Indre,Indre-et-Loire, Maine-et-Loire, Sarthe, Eure-et-Loir (mai 2018), Loiret, île de Noirmoutier, (Vendée), Calvados, Champagne, Aube, Val-d'Oise, Haute-Marne, région parisienne, Nord, Pas-de-Calais, Somme, Meurthe-et-Moselle et la Vienne, Sud Seine-et-Marne (mai 2022).
 Plusieurs cas ont également été recensés dans la baie du Mont-St-Michel, en baie de Somme, dans les jardins secs, les jachères, les dunes.
 Il s'en trouve également bien réparties dans le département de la Gironde
 </t>
@@ -672,9 +694,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est classée "LC" : Préoccupation mineure[5]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est classée "LC" : Préoccupation mineure
 </t>
         </is>
       </c>
@@ -703,7 +727,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, l'espèce est protégée légalement. En Suisse, l'espèce figure sur la liste rouge des plantes.
 </t>
